--- a/Preliminare/62.4_80/Cp-Lambda_v3_2021_CLEAN_March2021/2.Baseline_96_1.5MW_IIA/RUN/Performances/0.Main/WTData.xlsx
+++ b/Preliminare/62.4_80/Cp-Lambda_v3_2021_CLEAN_March2021/2.Baseline_96_1.5MW_IIA/RUN/Performances/0.Main/WTData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucam\Documents\GitHub\PGE\Preliminare\62.4_80\2.Baseline_96_1.5MW_IIA\RUN\Performances\0.Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucam\Documents\GitHub\PGE\Preliminare\62.4_80\Cp-Lambda_v3_2021_CLEAN_March2021\2.Baseline_96_1.5MW_IIA\RUN\Performances\0.Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A17443-6600-4887-984C-A39230C6171D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAF0EAA-B5CA-4032-987E-A1A5FA86DD2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3024" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WTData" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>Updated by Cp-Lambda Pre-Processor on 19-May-2021 12:58:44</t>
+    <t>Updated by Cp-Lambda Pre-Processor on 20-May-2021 10:22:25</t>
   </si>
 </sst>
 </file>
@@ -593,15 +593,15 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="116.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="116.54296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -629,7 +629,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -643,7 +643,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -690,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -715,7 +715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -730,7 +730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -741,11 +741,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -756,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -767,7 +767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -778,7 +778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -789,11 +789,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>32</v>
       </c>
@@ -807,7 +807,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
@@ -821,7 +821,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
@@ -832,7 +832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -843,7 +843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
@@ -857,7 +857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -879,7 +879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
@@ -893,7 +893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
@@ -904,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>37</v>
       </c>
@@ -915,11 +915,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>40</v>
       </c>
@@ -928,7 +928,7 @@
       </c>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>41</v>
       </c>
@@ -940,7 +940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
@@ -954,7 +954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>43</v>
       </c>
@@ -968,7 +968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>44</v>
       </c>
@@ -980,7 +980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>45</v>
       </c>
@@ -992,7 +992,7 @@
       </c>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>46</v>
       </c>
